--- a/Checks/TANF_na_check.xlsx
+++ b/Checks/TANF_na_check.xlsx
@@ -1684,16 +1684,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1705,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
